--- a/meta/en/3-6-1.xlsx
+++ b/meta/en/3-6-1.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -116,9 +115,6 @@
     <t>+996 (0312) 32 46 36</t>
   </si>
   <si>
-    <t xml:space="preserve">www.stat.kg </t>
-  </si>
-  <si>
     <t>Number of road traffic fatal injury deaths per 100,000 population.</t>
   </si>
   <si>
@@ -156,6 +152,9 @@
     <t>References to RLA and methodology: 
 http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/; https://unstats.un.org/sdgs/Metadata; http://www.stat.kg/ru/statistics/download/methodology/68/. 
 National Statistical Committee publications: «Social economic situation of the Kyrgyz Republic» monthly report, statistical collections: «Statistical trends in the Kyrgyz Republic”, «Women and men of the Kyrgyz Republic», «Health of population and healthcare in the Kyrgyz Republic» available on the official website of NSC KR: http://www.stat.kg/ru/publications/</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -564,7 +563,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +646,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +660,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -669,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +698,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -713,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +720,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +728,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -743,7 +742,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +750,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +758,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
